--- a/results/pvalue_SIDER_rare_DGI_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_DGI_AUPRperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.218</t>
+          <t>0.144</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.304</t>
+          <t>0.356</t>
         </is>
       </c>
     </row>
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.865</t>
+          <t>2.496</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.943</t>
+          <t>2.568</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-17.236</t>
+          <t>-14.723</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-17.639</t>
+          <t>-16.932</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12.425</t>
+          <t>13.799</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12.895</t>
+          <t>14.374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.461</t>
+          <t>1.811</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-1.179</t>
+          <t>-1.044</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>18.111</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
